--- a/Clean data sheets/Male fecundity.xlsx
+++ b/Clean data sheets/Male fecundity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets all weeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB23BAE5-AE39-6C4E-B553-EF0D67628982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676FC484-DDB3-0B4B-BEA7-2AA5CDCFD70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1000" windowWidth="25040" windowHeight="13740" xr2:uid="{06FD4AD4-10E9-0B42-9F25-5C48D865419D}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Week 2</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Week 4</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>666667</v>
@@ -489,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>316667</v>
@@ -503,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>266667</v>
@@ -514,10 +514,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
       </c>
       <c r="C7">
         <v>412500</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
       </c>
       <c r="C8">
         <v>1583333</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
       </c>
       <c r="C9">
         <v>50000</v>
@@ -559,7 +559,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>532951</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>417338</v>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>518259</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>520535</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>679250</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>712023</v>
@@ -643,7 +643,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>741249</v>
@@ -657,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>510074</v>
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>457736</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>605327</v>
@@ -696,10 +696,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>509433</v>
@@ -710,10 +710,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>391593</v>
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>1377464</v>
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>1406056</v>
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>325077</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>526210</v>
@@ -783,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>663417</v>
@@ -797,7 +797,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>884271</v>
@@ -811,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>1378933</v>
@@ -825,7 +825,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>748923</v>
@@ -839,7 +839,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>764423</v>
@@ -850,10 +850,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>489610</v>
@@ -864,10 +864,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>891084</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>1938613</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>212089</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>601125</v>
@@ -920,10 +920,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>424498</v>
@@ -934,10 +934,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>342889</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>309156</v>
@@ -962,10 +962,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>412195</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>882020</v>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>295065</v>
@@ -1007,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42">
         <v>805428</v>
@@ -1021,7 +1021,7 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43">
         <v>255334</v>
@@ -1035,7 +1035,7 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44">
         <v>602229</v>
@@ -1049,7 +1049,7 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45">
         <v>1873902</v>
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46">
         <v>687965</v>
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47">
         <v>1524025</v>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48">
         <v>790643</v>
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49">
         <v>872451</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>910420</v>
@@ -1130,10 +1130,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51">
         <v>988265</v>
@@ -1144,10 +1144,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52">
         <v>1905739</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>947612</v>
@@ -1172,10 +1172,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54">
         <v>1095774</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55">
         <v>378017</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>384306</v>
@@ -1214,10 +1214,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57">
         <v>717934</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58">
         <v>468711</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59">
         <v>1178929</v>
